--- a/InputData/elec/MCGLT/Max Cap Growth Lookup Table.xlsx
+++ b/InputData/elec/MCGLT/Max Cap Growth Lookup Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/elec/mcglt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1633845B-D212-7F4E-84E3-60B256834DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B408E4-C4D7-0A49-BFF3-2A34ADDAA1FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="840" windowWidth="15520" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>CA</t>
   </si>
@@ -510,7 +510,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -536,6 +536,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,8 +896,8 @@
       <c r="B1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>124</v>
+      <c r="C1" s="23">
+        <v>44307</v>
       </c>
       <c r="G1" t="s">
         <v>124</v>
